--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,58 +2229,58 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.37</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.94</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T20" t="n">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2413,58 +2413,58 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>4.37</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.66</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T22" t="n">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -2965,58 +2965,58 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>23/08/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>23/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>23/08/2023 16:06</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:06</t>
-        </is>
-      </c>
       <c r="R28" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.77</v>
+        <v>3.38</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.93</v>
+        <v>3.09</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.7</v>
+        <v>3.18</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.19</v>
+        <v>2.41</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.33</v>
+        <v>3.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:02</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.35</v>
+        <v>3.23</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.41</v>
+        <v>3.23</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.71</v>
+        <v>3.44</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 15:02</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.23</v>
+        <v>3.55</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,374 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-gornik-zabrze/UaKE08Kk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>22/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:46</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>22/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:46</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>22/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:46</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rks-rakow-czestochowa/Cdunz9B8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-kluczbork/UDamF7Zr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-rekord-bielsko-biala/OzaiERlk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:44</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:44</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>23/09/2023 11:44</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.29</v>
+        <v>3.38</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.53</v>
+        <v>3.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.42</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.38</v>
+        <v>4.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.09</v>
+        <v>4.53</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.18</v>
+        <v>4.42</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.8</v>
+        <v>3.31</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,466 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-zielona-gora/bgi4BPY7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-pniowek-pawlowice/QaqjZSQE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-polkowice/nFXbX6eR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-slask-wroclaw/8OYfYntL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:18</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:18</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:18</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-karkonosze-jelenia-gora/2RceDo4e/</t>
         </is>
       </c>
     </row>
